--- a/data/trans_dic/P14B23_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14B23_2016_2023-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0180511150412552</v>
+        <v>0.01672395264861177</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04627073401274476</v>
+        <v>0.04657706063028078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07107454021497067</v>
+        <v>0.07126452128589902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09569616116022168</v>
+        <v>0.09375591532219869</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.049778158281355</v>
+        <v>0.05037378675683016</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07847775342191232</v>
+        <v>0.07879356023994544</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04146919694620286</v>
+        <v>0.04117270382172662</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08483189879189211</v>
+        <v>0.08414539355769612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1077830108708818</v>
+        <v>0.1087940626725856</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1304771309474668</v>
+        <v>0.1305667026199832</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07378531034910674</v>
+        <v>0.0743216151234528</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1052021407754363</v>
+        <v>0.1049902976104735</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007173951949445242</v>
+        <v>0.007191192132153368</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02124389008762111</v>
+        <v>0.0215410893778629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02389087930094264</v>
+        <v>0.0236230988941792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04321784372512835</v>
+        <v>0.04242714936828207</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01689536902188449</v>
+        <v>0.01675992717667366</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03390468612376558</v>
+        <v>0.03429409535387648</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01794562673439492</v>
+        <v>0.0178233413634129</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03644307870987949</v>
+        <v>0.03700013698609442</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03966180289105089</v>
+        <v>0.04040829305083625</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05864374188671053</v>
+        <v>0.05888445196973493</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02613332411785367</v>
+        <v>0.02623935146245353</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04526192379795939</v>
+        <v>0.04529537361848437</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.01087262157246562</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02786840664566912</v>
+        <v>0.02786840664566911</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.007206144269245364</v>
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01360930294536303</v>
+        <v>0.01512024810824965</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003660464107152311</v>
+        <v>0.003631751201831204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01820101715119998</v>
+        <v>0.01844296047093162</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002947026265904198</v>
+        <v>0.002907689726804856</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01848072945951175</v>
+        <v>0.01932824400807154</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01138185075860429</v>
+        <v>0.01224386815000235</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04401895587181837</v>
+        <v>0.0456783369354074</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02403418007994612</v>
+        <v>0.025864830225757</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04050354300436618</v>
+        <v>0.04083647371812824</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01436610643059117</v>
+        <v>0.01509749704171569</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03758280098251068</v>
+        <v>0.03693128935652817</v>
       </c>
     </row>
     <row r="13">
@@ -858,19 +858,19 @@
         <v>0.01376883196866463</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03344692064923998</v>
+        <v>0.03344692064923997</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.04388499381091674</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05939186517295326</v>
+        <v>0.05939186517295327</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02916148928517467</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04679212836555798</v>
+        <v>0.046792128365558</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009933342494344702</v>
+        <v>0.009946489902921156</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0275067769404458</v>
+        <v>0.02755256373803784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03728455583598077</v>
+        <v>0.03693701480180476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05286030400826552</v>
+        <v>0.05304900373091434</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0251555889475809</v>
+        <v>0.02520545794506068</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04240431039693644</v>
+        <v>0.04255667558305574</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01850807616741014</v>
+        <v>0.01828978457064087</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04078002042976685</v>
+        <v>0.04069190798064994</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05151977657701484</v>
+        <v>0.05163264066367277</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06572553698715744</v>
+        <v>0.06660295589416666</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03294515322047758</v>
+        <v>0.03359399663226513</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05174268333893112</v>
+        <v>0.05175451593605811</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13617</v>
+        <v>12616</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26689</v>
+        <v>26866</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>70695</v>
+        <v>70884</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>78597</v>
+        <v>77003</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>87062</v>
+        <v>88104</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>109721</v>
+        <v>110163</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31282</v>
+        <v>31059</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>48931</v>
+        <v>48535</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>107207</v>
+        <v>108213</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>107163</v>
+        <v>107236</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>129051</v>
+        <v>129989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>147085</v>
+        <v>146789</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14896</v>
+        <v>14932</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>47355</v>
+        <v>48018</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47479</v>
+        <v>46947</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>93662</v>
+        <v>91948</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>68658</v>
+        <v>68107</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>149056</v>
+        <v>150768</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37262</v>
+        <v>37008</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>81236</v>
+        <v>82478</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>78821</v>
+        <v>80304</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>127093</v>
+        <v>127614</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>106198</v>
+        <v>106629</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>198986</v>
+        <v>199133</v>
       </c>
     </row>
     <row r="12">
@@ -1327,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9656</v>
+        <v>10728</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13376</v>
+        <v>13553</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3230</v>
+        <v>3187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26693</v>
+        <v>27917</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6225</v>
+        <v>6696</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31231</v>
+        <v>32408</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13198</v>
+        <v>14203</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29765</v>
+        <v>30010</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15746</v>
+        <v>16547</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54283</v>
+        <v>53342</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>33551</v>
+        <v>33595</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>96697</v>
+        <v>96858</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>131656</v>
+        <v>130429</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>196820</v>
+        <v>197522</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>173793</v>
+        <v>174138</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>306956</v>
+        <v>308059</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>62513</v>
+        <v>61776</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>143358</v>
+        <v>143048</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>181923</v>
+        <v>182321</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>244722</v>
+        <v>247989</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>227610</v>
+        <v>232092</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>374555</v>
+        <v>374640</v>
       </c>
     </row>
     <row r="20">
